--- a/4004-F18-A2-correctionGrid.xlsx
+++ b/4004-F18-A2-correctionGrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\GitHub\comp4004-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB554F-E8B1-423D-9D58-D7381AB84216}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD488F-F122-4B23-A668-849B40002C40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="177">
   <si>
     <t>First Name</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>IsItAPair.java</t>
+  </si>
+  <si>
+    <t>HTB_royal_flush_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBRoyalFlushBeatsAIP.java</t>
   </si>
 </sst>
 </file>
@@ -2112,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2560,14 +2566,18 @@
         <v>26</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="12">
         <v>0.5</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="20"/>
@@ -2586,14 +2596,18 @@
         <v>27</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="12">
         <v>0.5</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="20"/>
@@ -2612,14 +2626,18 @@
         <v>28</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="12">
         <v>0.5</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2635,14 +2653,18 @@
         <v>29</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12">
         <v>0.5</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -2658,14 +2680,18 @@
         <v>30</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="12">
         <v>0.5</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -2681,14 +2707,18 @@
         <v>31</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="12">
         <v>0.5</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -2704,14 +2734,18 @@
         <v>32</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="12">
         <v>0.5</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -2727,14 +2761,18 @@
         <v>33</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="12">
         <v>0.5</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2750,14 +2788,18 @@
         <v>34</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="12">
         <v>0.5</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>

--- a/4004-F18-A2-correctionGrid.xlsx
+++ b/4004-F18-A2-correctionGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\GitHub\comp4004-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD488F-F122-4B23-A668-849B40002C40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5EE935-FA18-403D-A5EE-901575B37125}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="193">
   <si>
     <t>First Name</t>
   </si>
@@ -577,6 +577,54 @@
   </si>
   <si>
     <t>HTBRoyalFlushBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_straight_flush_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBStraightFlushBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_four_of_a_kind_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBFourOfAKindBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_full_house_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBFullHouseBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_flush_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBFlushBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_straight_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBStraightBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_three_of_a_kind_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBThreeOfAKindBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_two_pair_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBTwoPairBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>HTB_pair_beats_AIP.feature</t>
+  </si>
+  <si>
+    <t>HTBPairBeatsAIP.java</t>
   </si>
 </sst>
 </file>
@@ -2118,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2815,14 +2863,18 @@
         <v>35</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="12">
         <v>0.5</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2838,14 +2890,18 @@
         <v>36</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="12">
         <v>0.5</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -2861,14 +2917,18 @@
         <v>37</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="12">
         <v>0.5</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2884,14 +2944,18 @@
         <v>38</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="12">
         <v>0.5</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -2906,14 +2970,18 @@
         <v>39</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="12">
         <v>0.5</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -2929,14 +2997,18 @@
         <v>40</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="12">
         <v>0.5</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2952,14 +3024,18 @@
         <v>41</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="12">
         <v>0.5</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2975,14 +3051,18 @@
         <v>42</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="12">
         <v>0.5</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2998,14 +3078,18 @@
         <v>44</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="12">
         <v>0.5</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3021,14 +3105,18 @@
         <v>45</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="12">
         <v>0.5</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3044,14 +3132,18 @@
         <v>46</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="12">
         <v>0.5</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -3067,14 +3159,18 @@
         <v>47</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="12">
         <v>0.5</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3090,14 +3186,18 @@
         <v>48</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="12">
         <v>0.5</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -3113,14 +3213,18 @@
         <v>49</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="12">
         <v>0.5</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="E41" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3136,14 +3240,18 @@
         <v>50</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="12">
         <v>0.5</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -3158,14 +3266,18 @@
         <v>51</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="12">
         <v>0.5</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -3180,14 +3292,18 @@
         <v>52</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="12">
         <v>0.5</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -3202,14 +3318,18 @@
         <v>53</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="12">
         <v>0.5</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3224,14 +3344,18 @@
         <v>54</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="12">
         <v>0.5</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -3246,14 +3370,18 @@
         <v>55</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="12">
         <v>0.5</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -3268,14 +3396,18 @@
         <v>56</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="12">
         <v>0.5</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -3290,14 +3422,18 @@
         <v>57</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="12">
         <v>0.5</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -3312,14 +3448,18 @@
         <v>58</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="12">
         <v>0.5</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3334,14 +3474,18 @@
         <v>59</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="12">
         <v>0.5</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="E51" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -3356,14 +3500,18 @@
         <v>60</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="12">
         <v>0.5</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -3378,14 +3526,18 @@
         <v>61</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="12">
         <v>0.5</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -3400,14 +3552,18 @@
         <v>62</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="12">
         <v>0.5</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="E54" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -3422,14 +3578,18 @@
         <v>63</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="12">
         <v>0.5</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="E55" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -3444,14 +3604,18 @@
         <v>64</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="12">
         <v>0.5</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -3466,14 +3630,18 @@
         <v>65</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="12">
         <v>0.5</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="E57" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -3488,14 +3656,18 @@
         <v>66</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="12">
         <v>0.5</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -3510,14 +3682,18 @@
         <v>67</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="12">
         <v>0.5</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -3532,14 +3708,18 @@
         <v>68</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="12">
         <v>0.5</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -3554,14 +3734,18 @@
         <v>69</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="12">
         <v>0.5</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -3576,14 +3760,18 @@
         <v>70</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="12">
         <v>0.5</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="E62" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -3598,14 +3786,18 @@
         <v>71</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="12">
         <v>0.5</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="E63" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>192</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>

--- a/4004-F18-A2-correctionGrid.xlsx
+++ b/4004-F18-A2-correctionGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\GitHub\comp4004-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5EE935-FA18-403D-A5EE-901575B37125}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC2FB5-AA6C-4E3D-82AB-6EFD1841334C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="207">
   <si>
     <t>First Name</t>
   </si>
@@ -625,6 +625,48 @@
   </si>
   <si>
     <t>HTBPairBeatsAIP.java</t>
+  </si>
+  <si>
+    <t>AIP_royal_flush_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPRoyalFlushBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>AIP_straight_flush_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPStraightFlushBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>AIP_four_of_a_kind_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPFourOfAKindBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>AIP_full_house_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPFullHouseBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>AIP_flush_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPFlushBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>AIP_straight_beats_HTB.feature</t>
+  </si>
+  <si>
+    <t>AIPStraightBeatsHTB.java</t>
+  </si>
+  <si>
+    <t>feature file</t>
+  </si>
+  <si>
+    <t>java file</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2314,8 +2356,12 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3828,14 +3874,18 @@
         <v>72</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="12">
         <v>0.5</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="E65" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -3850,14 +3900,18 @@
         <v>73</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="12">
         <v>0.5</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+      <c r="E66" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -3872,14 +3926,18 @@
         <v>74</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="12">
         <v>0.5</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -3894,14 +3952,18 @@
         <v>75</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="12">
         <v>0.5</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -3918,14 +3980,18 @@
         <v>76</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="12">
         <v>0.5</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="E69" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -3942,14 +4008,18 @@
         <v>77</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="12">
         <v>0.5</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="E70" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -3966,14 +4036,18 @@
         <v>78</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="12">
         <v>0.5</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
+      <c r="E71" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -3990,14 +4064,18 @@
         <v>79</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="12">
         <v>0.5</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -4014,14 +4092,18 @@
         <v>80</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="12">
         <v>0.5</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
+      <c r="E73" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -4038,14 +4120,18 @@
         <v>81</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="12">
         <v>0.5</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
+      <c r="E74" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -4062,14 +4148,18 @@
         <v>82</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="12">
         <v>0.5</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
+      <c r="E75" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -4086,14 +4176,18 @@
         <v>83</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="12">
         <v>0.5</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+      <c r="E76" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -4110,14 +4204,18 @@
         <v>84</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="12">
         <v>0.5</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="E77" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -4134,14 +4232,18 @@
         <v>85</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="12">
         <v>0.5</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="E78" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -4158,14 +4260,18 @@
         <v>86</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="12">
         <v>0.5</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
+      <c r="E79" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -4182,14 +4288,18 @@
         <v>87</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="12">
         <v>0.5</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
+      <c r="E80" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -4206,14 +4316,18 @@
         <v>88</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="12">
         <v>0.5</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
+      <c r="E81" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -4230,14 +4344,18 @@
         <v>89</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="12">
         <v>0.5</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="E82" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -4254,14 +4372,18 @@
         <v>90</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="12">
         <v>0.5</v>
       </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
+      <c r="E83" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -4278,14 +4400,18 @@
         <v>91</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="12">
         <v>0.5</v>
       </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
+      <c r="E84" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -4303,14 +4429,18 @@
         <v>92</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="12">
         <v>0.5</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+      <c r="E85" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -4328,14 +4458,18 @@
         <v>94</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="12">
         <v>0.5</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -4353,14 +4487,18 @@
         <v>95</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="12">
         <v>0.5</v>
       </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
+      <c r="E87" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -4378,14 +4516,18 @@
         <v>93</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="12">
         <v>0.5</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
+      <c r="E88" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -4403,14 +4545,18 @@
         <v>96</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="12">
         <v>0.5</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="E89" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -4428,14 +4574,18 @@
         <v>97</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="12">
         <v>0.5</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="E90" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -4452,14 +4602,18 @@
         <v>98</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="12">
         <v>0.5</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
+      <c r="E91" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -4476,14 +4630,18 @@
         <v>99</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="12">
         <v>0.5</v>
       </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="E92" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -4500,14 +4658,18 @@
         <v>100</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="12">
         <v>0.5</v>
       </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
+      <c r="E93" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -4524,14 +4686,18 @@
         <v>101</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="12">
         <v>0.5</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="E94" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -4548,14 +4714,18 @@
         <v>102</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="12">
         <v>0.5</v>
       </c>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
+      <c r="E95" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -4572,14 +4742,18 @@
         <v>103</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="12">
         <v>0.5</v>
       </c>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
+      <c r="E96" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -4596,14 +4770,18 @@
         <v>104</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="12">
         <v>0.5</v>
       </c>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
+      <c r="E97" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -4620,14 +4798,18 @@
         <v>105</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="12">
         <v>0.5</v>
       </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
+      <c r="E98" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -4644,14 +4826,18 @@
         <v>106</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="12">
         <v>0.5</v>
       </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
+      <c r="E99" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -4668,14 +4854,18 @@
         <v>107</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="12">
         <v>0.5</v>
       </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
+      <c r="E100" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -4692,14 +4882,18 @@
         <v>108</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="12">
         <v>0.5</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
+      <c r="E101" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -4716,14 +4910,18 @@
         <v>109</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="12">
         <v>0.5</v>
       </c>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
+      <c r="E102" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -4740,14 +4938,18 @@
         <v>110</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="12">
         <v>0.5</v>
       </c>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="E103" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>

--- a/4004-F18-A2-correctionGrid.xlsx
+++ b/4004-F18-A2-correctionGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\GitHub\comp4004-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC2FB5-AA6C-4E3D-82AB-6EFD1841334C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF903BF1-4CEE-458F-9014-D650049E1C00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="209">
   <si>
     <t>First Name</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>java file</t>
+  </si>
+  <si>
+    <t>AIP_exchanges.feature</t>
+  </si>
+  <si>
+    <t>AIPExchanges.java</t>
   </si>
 </sst>
 </file>
@@ -2208,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4984,14 +4990,18 @@
         <v>111</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="12">
         <v>1</v>
       </c>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
+      <c r="E105" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
@@ -5008,14 +5018,18 @@
         <v>113</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="12">
         <v>1</v>
       </c>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
+      <c r="E106" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -5032,14 +5046,18 @@
         <v>112</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12">
         <v>1</v>
       </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
+      <c r="E107" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -5056,14 +5074,18 @@
         <v>114</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="12">
         <v>1</v>
       </c>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
+      <c r="E108" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -5080,14 +5102,18 @@
         <v>115</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="12">
         <v>1</v>
       </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
+      <c r="E109" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -5104,14 +5130,18 @@
         <v>116</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="12">
         <v>1</v>
       </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
+      <c r="E110" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
@@ -5128,14 +5158,18 @@
         <v>117</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="12">
         <v>1</v>
       </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
+      <c r="E111" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -5152,14 +5186,18 @@
         <v>118</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="12">
         <v>1</v>
       </c>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
+      <c r="E112" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -5176,14 +5214,18 @@
         <v>119</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="12">
         <v>1</v>
       </c>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
+      <c r="E113" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -5200,14 +5242,18 @@
         <v>120</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="12">
         <v>1</v>
       </c>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
+      <c r="E114" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -5224,14 +5270,18 @@
         <v>121</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="12">
         <v>1</v>
       </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
+      <c r="E115" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -5248,14 +5298,18 @@
         <v>122</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="12">
         <v>1</v>
       </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
+      <c r="E116" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -5272,14 +5326,18 @@
         <v>123</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="12">
         <v>1</v>
       </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
+      <c r="E117" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -5296,14 +5354,18 @@
         <v>124</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="12">
         <v>1</v>
       </c>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
+      <c r="E118" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -5320,14 +5382,18 @@
         <v>125</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="12">
         <v>1</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
+      <c r="E119" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -5344,14 +5410,18 @@
         <v>126</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="12">
         <v>1</v>
       </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
+      <c r="E120" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>

--- a/4004-F18-A2-correctionGrid.xlsx
+++ b/4004-F18-A2-correctionGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\GitHub\comp4004-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF903BF1-4CEE-458F-9014-D650049E1C00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6761648-E859-4D1F-AEAB-226336DACD9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="212">
   <si>
     <t>First Name</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>maximum</t>
-  </si>
-  <si>
-    <t>yes/no</t>
   </si>
   <si>
     <t xml:space="preserve">two pairs with the same highest pair for each participant, </t>
@@ -663,23 +660,52 @@
     <t>AIPStraightBeatsHTB.java</t>
   </si>
   <si>
-    <t>feature file</t>
-  </si>
-  <si>
-    <t>java file</t>
-  </si>
-  <si>
     <t>AIP_exchanges.feature</t>
   </si>
   <si>
     <t>AIPExchanges.java</t>
+  </si>
+  <si>
+    <t>settle_ties.feature</t>
+  </si>
+  <si>
+    <t>SettleTies.java</t>
+  </si>
+  <si>
+    <t>.feature file</t>
+  </si>
+  <si>
+    <t>.java file</t>
+  </si>
+  <si>
+    <t>yes?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> All of the following tests function perfectly, however the code does not support any ties, other than two royal flushes, and as a result every test (other than the royal flush tie test), fails. I am not sure if you were aware of this, because the reason it appears as though the game handles all tests, is because the winning hand is always given to the opponent when ran with the input file provided, and when a tie occurs, the winner is the opponent by default...</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -714,8 +740,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +789,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -921,7 +966,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -954,6 +999,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2214,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2224,22 +2272,23 @@
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -2253,16 +2302,16 @@
     </row>
     <row r="2" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2283,7 +2332,7 @@
         <v>100980836</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2312,10 +2361,10 @@
     </row>
     <row r="5" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="12"/>
@@ -2332,7 +2381,7 @@
     <row r="6" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
@@ -2341,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2355,18 +2404,18 @@
     </row>
     <row r="7" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
+      <c r="E7" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2379,20 +2428,20 @@
     </row>
     <row r="8" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="12">
         <v>3</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2405,20 +2454,20 @@
     </row>
     <row r="9" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="12">
         <v>2</v>
       </c>
       <c r="E9" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2431,20 +2480,20 @@
     </row>
     <row r="10" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>162</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2457,20 +2506,20 @@
     </row>
     <row r="11" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2483,20 +2532,20 @@
     </row>
     <row r="12" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2509,20 +2558,20 @@
     </row>
     <row r="13" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12">
         <v>2</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>168</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2535,20 +2584,20 @@
     </row>
     <row r="14" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>3</v>
       </c>
       <c r="E14" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2561,20 +2610,20 @@
     </row>
     <row r="15" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="12">
         <v>2</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2591,20 +2640,20 @@
     </row>
     <row r="16" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2641,7 +2690,7 @@
     </row>
     <row r="18" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
@@ -2663,20 +2712,20 @@
     </row>
     <row r="19" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="12">
         <v>0.5</v>
       </c>
       <c r="E19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2693,20 +2742,20 @@
     </row>
     <row r="20" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="12">
         <v>0.5</v>
       </c>
       <c r="E20" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2723,20 +2772,20 @@
     </row>
     <row r="21" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="12">
         <v>0.5</v>
       </c>
       <c r="E21" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2750,20 +2799,20 @@
     </row>
     <row r="22" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12">
         <v>0.5</v>
       </c>
       <c r="E22" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2777,20 +2826,20 @@
     </row>
     <row r="23" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="12">
         <v>0.5</v>
       </c>
       <c r="E23" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2804,20 +2853,20 @@
     </row>
     <row r="24" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="12">
         <v>0.5</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2831,20 +2880,20 @@
     </row>
     <row r="25" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="12">
         <v>0.5</v>
       </c>
       <c r="E25" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2858,20 +2907,20 @@
     </row>
     <row r="26" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="12">
         <v>0.5</v>
       </c>
       <c r="E26" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2885,20 +2934,20 @@
     </row>
     <row r="27" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="12">
         <v>0.5</v>
       </c>
       <c r="E27" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2912,20 +2961,20 @@
     </row>
     <row r="28" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="12">
         <v>0.5</v>
       </c>
       <c r="E28" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2939,20 +2988,20 @@
     </row>
     <row r="29" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="12">
         <v>0.5</v>
       </c>
       <c r="E29" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2966,20 +3015,20 @@
     </row>
     <row r="30" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="12">
         <v>0.5</v>
       </c>
       <c r="E30" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2993,20 +3042,20 @@
     </row>
     <row r="31" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="12">
         <v>0.5</v>
       </c>
       <c r="E31" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3019,20 +3068,20 @@
     </row>
     <row r="32" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="12">
         <v>0.5</v>
       </c>
       <c r="E32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3046,20 +3095,20 @@
     </row>
     <row r="33" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="12">
         <v>0.5</v>
       </c>
       <c r="E33" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3073,20 +3122,20 @@
     </row>
     <row r="34" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="12">
         <v>0.5</v>
       </c>
       <c r="E34" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3100,20 +3149,20 @@
     </row>
     <row r="35" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="12">
         <v>0.5</v>
       </c>
       <c r="E35" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3127,20 +3176,20 @@
     </row>
     <row r="36" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="12">
         <v>0.5</v>
       </c>
       <c r="E36" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3154,20 +3203,20 @@
     </row>
     <row r="37" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="12">
         <v>0.5</v>
       </c>
       <c r="E37" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3181,20 +3230,20 @@
     </row>
     <row r="38" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="12">
         <v>0.5</v>
       </c>
       <c r="E38" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3208,20 +3257,20 @@
     </row>
     <row r="39" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="12">
         <v>0.5</v>
       </c>
       <c r="E39" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3235,20 +3284,20 @@
     </row>
     <row r="40" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="12">
         <v>0.5</v>
       </c>
       <c r="E40" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3262,20 +3311,20 @@
     </row>
     <row r="41" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="12">
         <v>0.5</v>
       </c>
       <c r="E41" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3289,20 +3338,20 @@
     </row>
     <row r="42" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="12">
         <v>0.5</v>
       </c>
       <c r="E42" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3315,20 +3364,20 @@
     </row>
     <row r="43" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="12">
         <v>0.5</v>
       </c>
       <c r="E43" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3341,20 +3390,20 @@
     </row>
     <row r="44" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="12">
         <v>0.5</v>
       </c>
       <c r="E44" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3367,20 +3416,20 @@
     </row>
     <row r="45" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="12">
         <v>0.5</v>
       </c>
       <c r="E45" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3393,20 +3442,20 @@
     </row>
     <row r="46" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="12">
         <v>0.5</v>
       </c>
       <c r="E46" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3419,20 +3468,20 @@
     </row>
     <row r="47" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="12">
         <v>0.5</v>
       </c>
       <c r="E47" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -3445,20 +3494,20 @@
     </row>
     <row r="48" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="12">
         <v>0.5</v>
       </c>
       <c r="E48" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3471,20 +3520,20 @@
     </row>
     <row r="49" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="12">
         <v>0.5</v>
       </c>
       <c r="E49" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3497,20 +3546,20 @@
     </row>
     <row r="50" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="12">
         <v>0.5</v>
       </c>
       <c r="E50" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3523,20 +3572,20 @@
     </row>
     <row r="51" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="12">
         <v>0.5</v>
       </c>
       <c r="E51" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3549,20 +3598,20 @@
     </row>
     <row r="52" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="12">
         <v>0.5</v>
       </c>
       <c r="E52" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3575,20 +3624,20 @@
     </row>
     <row r="53" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="12">
         <v>0.5</v>
       </c>
       <c r="E53" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3601,20 +3650,20 @@
     </row>
     <row r="54" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="12">
         <v>0.5</v>
       </c>
       <c r="E54" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3627,20 +3676,20 @@
     </row>
     <row r="55" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="12">
         <v>0.5</v>
       </c>
       <c r="E55" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -3653,20 +3702,20 @@
     </row>
     <row r="56" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="12">
         <v>0.5</v>
       </c>
       <c r="E56" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3679,20 +3728,20 @@
     </row>
     <row r="57" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="12">
         <v>0.5</v>
       </c>
       <c r="E57" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3705,20 +3754,20 @@
     </row>
     <row r="58" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="12">
         <v>0.5</v>
       </c>
       <c r="E58" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3731,20 +3780,20 @@
     </row>
     <row r="59" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="12">
         <v>0.5</v>
       </c>
       <c r="E59" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3757,20 +3806,20 @@
     </row>
     <row r="60" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="12">
         <v>0.5</v>
       </c>
       <c r="E60" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -3783,20 +3832,20 @@
     </row>
     <row r="61" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="12">
         <v>0.5</v>
       </c>
       <c r="E61" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>190</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -3809,20 +3858,20 @@
     </row>
     <row r="62" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="12">
         <v>0.5</v>
       </c>
       <c r="E62" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>190</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -3835,20 +3884,20 @@
     </row>
     <row r="63" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="12">
         <v>0.5</v>
       </c>
       <c r="E63" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -3877,20 +3926,20 @@
     </row>
     <row r="65" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="12">
         <v>0.5</v>
       </c>
       <c r="E65" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -3903,20 +3952,20 @@
     </row>
     <row r="66" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="12">
         <v>0.5</v>
       </c>
       <c r="E66" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3929,20 +3978,20 @@
     </row>
     <row r="67" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="12">
         <v>0.5</v>
       </c>
       <c r="E67" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -3955,20 +4004,20 @@
     </row>
     <row r="68" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="12">
         <v>0.5</v>
       </c>
       <c r="E68" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -3983,20 +4032,20 @@
     </row>
     <row r="69" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="12">
         <v>0.5</v>
       </c>
       <c r="E69" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -4011,20 +4060,20 @@
     </row>
     <row r="70" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="12">
         <v>0.5</v>
       </c>
       <c r="E70" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -4039,20 +4088,20 @@
     </row>
     <row r="71" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="12">
         <v>0.5</v>
       </c>
       <c r="E71" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -4067,20 +4116,20 @@
     </row>
     <row r="72" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="12">
         <v>0.5</v>
       </c>
       <c r="E72" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -4095,20 +4144,20 @@
     </row>
     <row r="73" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="12">
         <v>0.5</v>
       </c>
       <c r="E73" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -4123,20 +4172,20 @@
     </row>
     <row r="74" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="12">
         <v>0.5</v>
       </c>
       <c r="E74" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -4151,20 +4200,20 @@
     </row>
     <row r="75" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="12">
         <v>0.5</v>
       </c>
       <c r="E75" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -4179,20 +4228,20 @@
     </row>
     <row r="76" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="12">
         <v>0.5</v>
       </c>
       <c r="E76" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -4207,20 +4256,20 @@
     </row>
     <row r="77" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="12">
         <v>0.5</v>
       </c>
       <c r="E77" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -4235,20 +4284,20 @@
     </row>
     <row r="78" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="12">
         <v>0.5</v>
       </c>
       <c r="E78" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -4263,20 +4312,20 @@
     </row>
     <row r="79" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="12">
         <v>0.5</v>
       </c>
       <c r="E79" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -4291,20 +4340,20 @@
     </row>
     <row r="80" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="12">
         <v>0.5</v>
       </c>
       <c r="E80" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -4319,20 +4368,20 @@
     </row>
     <row r="81" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="12">
         <v>0.5</v>
       </c>
       <c r="E81" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -4347,20 +4396,20 @@
     </row>
     <row r="82" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="12">
         <v>0.5</v>
       </c>
       <c r="E82" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -4375,20 +4424,20 @@
     </row>
     <row r="83" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="12">
         <v>0.5</v>
       </c>
       <c r="E83" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -4403,20 +4452,20 @@
     </row>
     <row r="84" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="12">
         <v>0.5</v>
       </c>
       <c r="E84" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -4432,20 +4481,20 @@
     </row>
     <row r="85" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="12">
         <v>0.5</v>
       </c>
       <c r="E85" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -4461,20 +4510,20 @@
     </row>
     <row r="86" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="12">
         <v>0.5</v>
       </c>
       <c r="E86" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -4490,20 +4539,20 @@
     </row>
     <row r="87" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="12">
         <v>0.5</v>
       </c>
       <c r="E87" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -4519,20 +4568,20 @@
     </row>
     <row r="88" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="12">
         <v>0.5</v>
       </c>
       <c r="E88" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -4548,20 +4597,20 @@
     </row>
     <row r="89" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="12">
         <v>0.5</v>
       </c>
       <c r="E89" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -4577,20 +4626,20 @@
     </row>
     <row r="90" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="12">
         <v>0.5</v>
       </c>
       <c r="E90" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F90" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4605,20 +4654,20 @@
     </row>
     <row r="91" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="12">
         <v>0.5</v>
       </c>
       <c r="E91" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -4633,20 +4682,20 @@
     </row>
     <row r="92" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="12">
         <v>0.5</v>
       </c>
       <c r="E92" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -4661,20 +4710,20 @@
     </row>
     <row r="93" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="12">
         <v>0.5</v>
       </c>
       <c r="E93" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -4689,20 +4738,20 @@
     </row>
     <row r="94" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="12">
         <v>0.5</v>
       </c>
       <c r="E94" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -4717,20 +4766,20 @@
     </row>
     <row r="95" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="12">
         <v>0.5</v>
       </c>
       <c r="E95" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -4745,20 +4794,20 @@
     </row>
     <row r="96" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="12">
         <v>0.5</v>
       </c>
       <c r="E96" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F96" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -4773,20 +4822,20 @@
     </row>
     <row r="97" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="12">
         <v>0.5</v>
       </c>
       <c r="E97" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -4801,20 +4850,20 @@
     </row>
     <row r="98" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="12">
         <v>0.5</v>
       </c>
       <c r="E98" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -4829,20 +4878,20 @@
     </row>
     <row r="99" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="12">
         <v>0.5</v>
       </c>
       <c r="E99" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -4857,20 +4906,20 @@
     </row>
     <row r="100" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="12">
         <v>0.5</v>
       </c>
       <c r="E100" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -4885,20 +4934,20 @@
     </row>
     <row r="101" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="12">
         <v>0.5</v>
       </c>
       <c r="E101" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F101" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -4913,20 +4962,20 @@
     </row>
     <row r="102" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="12">
         <v>0.5</v>
       </c>
       <c r="E102" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -4941,20 +4990,20 @@
     </row>
     <row r="103" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="12">
         <v>0.5</v>
       </c>
       <c r="E103" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -4987,20 +5036,20 @@
     </row>
     <row r="105" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="12">
         <v>1</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -5015,20 +5064,20 @@
     </row>
     <row r="106" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="12">
         <v>1</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -5043,20 +5092,20 @@
     </row>
     <row r="107" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12">
         <v>1</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -5071,20 +5120,20 @@
     </row>
     <row r="108" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="12">
         <v>1</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -5099,20 +5148,20 @@
     </row>
     <row r="109" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="12">
         <v>1</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -5127,20 +5176,20 @@
     </row>
     <row r="110" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="12">
         <v>1</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -5155,20 +5204,20 @@
     </row>
     <row r="111" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="12">
         <v>1</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -5183,20 +5232,20 @@
     </row>
     <row r="112" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="12">
         <v>1</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -5211,20 +5260,20 @@
     </row>
     <row r="113" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="12">
         <v>1</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -5239,20 +5288,20 @@
     </row>
     <row r="114" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="12">
         <v>1</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -5267,20 +5316,20 @@
     </row>
     <row r="115" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="12">
         <v>1</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -5295,20 +5344,20 @@
     </row>
     <row r="116" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="12">
         <v>1</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F116" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -5323,20 +5372,20 @@
     </row>
     <row r="117" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="12">
         <v>1</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -5351,20 +5400,20 @@
     </row>
     <row r="118" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="12">
         <v>1</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -5379,20 +5428,20 @@
     </row>
     <row r="119" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="12">
         <v>1</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -5407,20 +5456,20 @@
     </row>
     <row r="120" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="12">
         <v>1</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -5451,11 +5500,13 @@
       <c r="IU121"/>
       <c r="IV121"/>
     </row>
-    <row r="122" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:256" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="C122" s="7"/>
       <c r="D122" s="12"/>
       <c r="E122" s="7"/>
@@ -5473,17 +5524,21 @@
     </row>
     <row r="123" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="12">
         <v>2</v>
       </c>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
+      <c r="E123" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
@@ -5497,17 +5552,21 @@
     </row>
     <row r="124" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="12">
         <v>2</v>
       </c>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -5521,17 +5580,21 @@
     </row>
     <row r="125" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>5</v>
+        <v>129</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="12">
         <v>2</v>
       </c>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
+      <c r="E125" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
@@ -5545,17 +5608,21 @@
     </row>
     <row r="126" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>5</v>
+        <v>130</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="12">
         <v>1</v>
       </c>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
+      <c r="E126" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -5569,17 +5636,21 @@
     </row>
     <row r="127" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>5</v>
+        <v>131</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="12">
         <v>1</v>
       </c>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
@@ -5593,17 +5664,21 @@
     </row>
     <row r="128" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="12">
         <v>1</v>
       </c>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
@@ -5617,10 +5692,10 @@
     </row>
     <row r="129" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="12"/>
@@ -5639,17 +5714,21 @@
     </row>
     <row r="130" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="12">
         <v>1</v>
       </c>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
+      <c r="E130" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
@@ -5663,17 +5742,21 @@
     </row>
     <row r="131" spans="1:256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="12">
         <v>1</v>
       </c>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
+      <c r="E131" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -5687,10 +5770,10 @@
     </row>
     <row r="132" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="27"/>
@@ -5706,17 +5789,21 @@
     </row>
     <row r="133" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="12">
         <v>1</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
+      <c r="E133" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -5727,17 +5814,21 @@
     </row>
     <row r="134" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C134" s="21"/>
       <c r="D134" s="12">
         <v>1</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
+      <c r="E134" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
@@ -5748,17 +5839,21 @@
     </row>
     <row r="135" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C135" s="21"/>
       <c r="D135" s="12">
         <v>1</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
+      <c r="E135" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
@@ -5769,10 +5864,10 @@
     </row>
     <row r="136" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="27"/>
@@ -5788,17 +5883,21 @@
     </row>
     <row r="137" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="12">
         <v>1</v>
       </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
+      <c r="E137" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
@@ -5809,10 +5908,10 @@
     </row>
     <row r="138" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="27"/>
@@ -5828,17 +5927,21 @@
     </row>
     <row r="139" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C139" s="21"/>
       <c r="D139" s="12">
         <v>1</v>
       </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
+      <c r="E139" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
@@ -5849,10 +5952,10 @@
     </row>
     <row r="140" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="27"/>
@@ -5868,17 +5971,21 @@
     </row>
     <row r="141" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="12">
         <v>1</v>
       </c>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
+      <c r="E141" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
@@ -5889,17 +5996,21 @@
     </row>
     <row r="142" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="12">
         <v>1</v>
       </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22"/>
+      <c r="E142" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
@@ -5910,17 +6021,21 @@
     </row>
     <row r="143" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C143" s="21"/>
       <c r="D143" s="12">
         <v>1</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
+      <c r="E143" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
@@ -5931,10 +6046,10 @@
     </row>
     <row r="144" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="27"/>
@@ -5950,17 +6065,21 @@
     </row>
     <row r="145" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="12">
         <v>1</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
+      <c r="E145" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
@@ -5971,10 +6090,10 @@
     </row>
     <row r="146" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="27"/>
@@ -5990,17 +6109,21 @@
     </row>
     <row r="147" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="12">
         <v>1</v>
       </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
+      <c r="E147" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
       <c r="I147" s="20"/>
@@ -6011,10 +6134,10 @@
     </row>
     <row r="148" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="27"/>
@@ -6030,17 +6153,21 @@
     </row>
     <row r="149" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C149" s="21"/>
       <c r="D149" s="12">
         <v>1</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
+      <c r="E149" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>207</v>
+      </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
@@ -6066,7 +6193,7 @@
     </row>
     <row r="151" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
@@ -6101,7 +6228,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
